--- a/A02RHW0_FA COMPARISON REPORT.xlsx
+++ b/A02RHW0_FA COMPARISON REPORT.xlsx
@@ -3773,7 +3773,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">6/5/2024 1:45:25 PM</t>
+            <t xml:space="preserve">6/24/2024 3:12:15 PM</t>
           </r>
           <r>
             <rPr>
@@ -3845,7 +3845,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/29/2024 9:59:25 AM</t>
+            <t xml:space="preserve">6/5/2024 2:04:01 PM</t>
           </r>
           <r>
             <rPr>
